--- a/Documentos de especificação complementar/Ponto de Função.xlsx
+++ b/Documentos de especificação complementar/Ponto de Função.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\ENG\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="12915" windowHeight="4905"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="12915" windowHeight="4905" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="5" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="Questões" sheetId="4" r:id="rId4"/>
     <sheet name="Coeficientes" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +28,7 @@
     <author>Andre Luiz Rodrigues Estevam</author>
   </authors>
   <commentList>
-    <comment ref="D2" authorId="0" shapeId="0">
+    <comment ref="D2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +42,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E2" authorId="0" shapeId="0">
+    <comment ref="E2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -62,7 +57,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0">
+    <comment ref="F2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -87,7 +82,7 @@
     <author>Andre Luiz Rodrigues Estevam</author>
   </authors>
   <commentList>
-    <comment ref="J2" authorId="0" shapeId="0">
+    <comment ref="J2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -261,10 +256,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="00\ \F\P"/>
-    <numFmt numFmtId="166" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="00\ \F\P"/>
+    <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="11" x14ac:knownFonts="1">
     <font>
@@ -1126,118 +1121,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1246,122 +1136,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1382,6 +1179,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1391,13 +1194,205 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1481,7 +1476,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1533,7 +1528,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1727,7 +1722,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1737,7 +1732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -1748,138 +1743,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="138"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="74"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="75" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="121">
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="59">
         <f>'Cálculo do Ponto de Função'!C8</f>
-        <v>0</v>
-      </c>
-      <c r="G2" s="122" t="s">
+        <v>16.900000000000002</v>
+      </c>
+      <c r="G2" s="60" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="112" t="s">
+      <c r="A3" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="110"/>
-      <c r="C3" s="110"/>
-      <c r="D3" s="110"/>
-      <c r="E3" s="111"/>
-      <c r="F3" s="123">
+      <c r="B3" s="79"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="61">
         <f>'Cálculo do Ponto de Função'!B13</f>
         <v>10</v>
       </c>
-      <c r="G3" s="113" t="s">
+      <c r="G3" s="58" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="112" t="s">
+      <c r="A4" s="78" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="110"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="110"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="123">
+      <c r="B4" s="79"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="61">
         <f>'Cálculo do Ponto de Função'!B17</f>
-        <v>0</v>
-      </c>
-      <c r="G4" s="113" t="s">
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="G4" s="58" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="114" t="s">
+      <c r="A5" s="81" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="115"/>
-      <c r="C5" s="115"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="116"/>
-      <c r="F5" s="124">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="70">
         <f>'Cálculo do Ponto de Função'!B19</f>
         <v>0</v>
       </c>
-      <c r="G5" s="117"/>
+      <c r="G5" s="71"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="136" t="s">
+      <c r="A7" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="137"/>
-      <c r="C7" s="137"/>
-      <c r="D7" s="137"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="137"/>
-      <c r="G7" s="138"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="73"/>
+      <c r="F7" s="73"/>
+      <c r="G7" s="74"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="122" t="s">
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+      <c r="D8" s="85"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="60" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="130"/>
-      <c r="B9" s="131"/>
-      <c r="C9" s="131"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="123"/>
-      <c r="G9" s="113"/>
+      <c r="A9" s="64"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="58"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="130"/>
-      <c r="B10" s="131"/>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="123"/>
-      <c r="G10" s="113"/>
+      <c r="A10" s="64"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="58"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="130"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="113"/>
+      <c r="A11" s="64"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="66"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="58"/>
     </row>
     <row r="12" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="133"/>
-      <c r="B12" s="134"/>
-      <c r="C12" s="134"/>
-      <c r="D12" s="134"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="128"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1915,55 +1910,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="88" t="s">
+      <c r="A1" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="90"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="89"/>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="91"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="93"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="92"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="91"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="93"/>
+      <c r="A3" s="90"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="91"/>
+      <c r="D3" s="91"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="94"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="96"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="94"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="95"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="48" t="s">
+      <c r="A6" s="98" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="49"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="34">
         <f>'Contagem total'!G8</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="96" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="35">
         <f>Questões!E19</f>
         <v>0</v>
@@ -1974,63 +1969,63 @@
         <v>35</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="98">
+      <c r="C8" s="54">
         <f>C6*(Coeficientes!A8 + (Coeficientes!A9 * C7))</f>
-        <v>0</v>
+        <v>16.900000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="82" t="s">
+      <c r="A11" s="47" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="83">
+      <c r="B11" s="48">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="85">
+      <c r="B12" s="50">
         <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="52" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="86">
+      <c r="B13" s="51">
         <f>B11*B12</f>
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="97" t="s">
+      <c r="A15" s="53" t="s">
         <v>39</v>
       </c>
-      <c r="B15" s="102"/>
+      <c r="B15" s="56"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="81">
+      <c r="B17" s="46">
         <f>C8/B13</f>
-        <v>0</v>
-      </c>
-      <c r="C17" s="103" t="s">
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="C17" s="57" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="81" t="s">
+      <c r="A19" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="102">
+      <c r="B19" s="56">
         <f>B12*B17*B15</f>
         <v>0</v>
       </c>
@@ -2052,7 +2047,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2067,9 +2062,9 @@
   <sheetData>
     <row r="1" spans="1:8" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C1" s="11"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
@@ -2096,76 +2091,84 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="110" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="111"/>
       <c r="C3" s="17">
-        <v>3</v>
-      </c>
-      <c r="D3" s="36"/>
+        <v>4</v>
+      </c>
+      <c r="D3" s="36">
+        <v>1</v>
+      </c>
       <c r="E3" s="37"/>
       <c r="F3" s="38"/>
       <c r="G3" s="14">
         <f>IF(D3=1,C3*Coeficientes!D2,IF(E3=1,C3*Coeficientes!E2,IF(F3=1,C3*Coeficientes!F2,0)))</f>
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="18">
-        <v>2</v>
-      </c>
-      <c r="D4" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="39">
+        <v>1</v>
+      </c>
       <c r="E4" s="40"/>
       <c r="F4" s="41"/>
       <c r="G4" s="15">
         <f>IF(D4=1,C4*Coeficientes!D3,IF(E4=1,C4*Coeficientes!E3,IF(F4=1,C4*Coeficientes!F3,0)))</f>
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="18">
-        <v>2</v>
-      </c>
-      <c r="D5" s="39"/>
+        <v>1</v>
+      </c>
+      <c r="D5" s="39">
+        <v>1</v>
+      </c>
       <c r="E5" s="40"/>
       <c r="F5" s="41"/>
       <c r="G5" s="15">
         <f>IF(D5=1,C5*Coeficientes!D4,IF(E5=1,C5*Coeficientes!E4,IF(F5=1,C5*Coeficientes!F4,0)))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="18">
         <v>1</v>
       </c>
-      <c r="D6" s="39"/>
+      <c r="D6" s="39">
+        <v>1</v>
+      </c>
       <c r="E6" s="40"/>
       <c r="F6" s="41"/>
       <c r="G6" s="15">
         <f>IF(D6=1,C6*Coeficientes!D5,IF(E6=1,C6*Coeficientes!E5,IF(F6=1,C6*Coeficientes!F5,0)))</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="104" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="105"/>
+      <c r="C7" s="19">
         <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="52" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="19">
-        <v>1</v>
       </c>
       <c r="D7" s="42"/>
       <c r="E7" s="43"/>
@@ -2176,14 +2179,14 @@
       </c>
     </row>
     <row r="8" spans="1:8" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="54" t="s">
+      <c r="D8" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="55"/>
-      <c r="F8" s="56"/>
+      <c r="E8" s="107"/>
+      <c r="F8" s="108"/>
       <c r="G8" s="13">
         <f>SUM(G3:G7)</f>
-        <v>0</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2226,11 +2229,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="69"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
       <c r="E1" s="33" t="s">
         <v>28</v>
       </c>
@@ -2243,9 +2246,9 @@
       </c>
     </row>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="70"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="72"/>
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
       <c r="E2" s="8">
         <v>0</v>
       </c>
@@ -2266,11 +2269,11 @@
       </c>
     </row>
     <row r="3" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
@@ -2279,11 +2282,11 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="64"/>
+      <c r="C4" s="113"/>
+      <c r="D4" s="113"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
@@ -2292,11 +2295,11 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="64"/>
-      <c r="D5" s="64"/>
+      <c r="C5" s="113"/>
+      <c r="D5" s="113"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
@@ -2305,11 +2308,11 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="112" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="64"/>
-      <c r="D6" s="64"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -2318,11 +2321,11 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -2331,11 +2334,11 @@
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="112" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="64"/>
-      <c r="D8" s="64"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
@@ -2344,11 +2347,11 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="63" t="s">
+      <c r="B9" s="112" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
@@ -2357,11 +2360,11 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="63" t="s">
+      <c r="B10" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
@@ -2370,11 +2373,11 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="63" t="s">
+      <c r="B11" s="112" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
@@ -2383,11 +2386,11 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="63" t="s">
+      <c r="B12" s="112" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="64"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
@@ -2396,11 +2399,11 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="63" t="s">
+      <c r="B13" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="64"/>
-      <c r="D13" s="64"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
@@ -2409,11 +2412,11 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="63" t="s">
+      <c r="B14" s="112" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="64"/>
-      <c r="D14" s="64"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="113"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -2422,11 +2425,11 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="112" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="64"/>
-      <c r="D15" s="64"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
@@ -2435,11 +2438,11 @@
       <c r="J15" s="29"/>
     </row>
     <row r="16" spans="2:10" s="24" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="65" t="s">
+      <c r="B16" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -2448,11 +2451,11 @@
       <c r="J16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="125" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="74"/>
-      <c r="D17" s="75"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="28">
         <f>SUM(E3:E16)</f>
         <v>0</v>
@@ -2479,11 +2482,11 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="73" t="s">
+      <c r="B18" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="75"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="28">
         <f>E17*E2</f>
         <v>0</v>
@@ -2510,29 +2513,23 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="60" t="s">
+      <c r="B19" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="60">
+      <c r="C19" s="115"/>
+      <c r="D19" s="116"/>
+      <c r="E19" s="114">
         <f>SUM(E18:J18)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="61"/>
-      <c r="G19" s="61"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="61"/>
-      <c r="J19" s="62"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
@@ -2546,6 +2543,12 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:J16">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -2564,28 +2567,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H9" sqref="G8:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="133" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="80"/>
+      <c r="B1" s="134"/>
+      <c r="C1" s="134"/>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="135"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="140" t="s">
+      <c r="A2" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="105"/>
-      <c r="C2" s="104"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="1">
         <v>3</v>
       </c>
@@ -2600,8 +2603,8 @@
       <c r="A3" s="139" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="107"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="141"/>
       <c r="D3" s="1">
         <v>4</v>
       </c>
@@ -2616,8 +2619,8 @@
       <c r="A4" s="139" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="141"/>
       <c r="D4" s="1">
         <v>3</v>
       </c>
@@ -2632,8 +2635,8 @@
       <c r="A5" s="139" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="106"/>
-      <c r="C5" s="107"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="141"/>
       <c r="D5" s="1">
         <v>7</v>
       </c>
@@ -2645,11 +2648,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="141" t="s">
+      <c r="A6" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="4">
         <v>5</v>
       </c>

--- a/Documentos de especificação complementar/Ponto de Função.xlsx
+++ b/Documentos de especificação complementar/Ponto de Função.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="12915" windowHeight="4905" activeTab="4"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="12915" windowHeight="4905"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="5" r:id="rId1"/>
@@ -23,6 +23,29 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>User</author>
+  </authors>
+  <commentList>
+    <comment ref="C15" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> http://www.catho.com.br/profissoes/analista-programador-csharp</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Andre Luiz Rodrigues Estevam</author>
@@ -76,7 +99,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Andre Luiz Rodrigues Estevam</author>
@@ -101,7 +124,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
   <si>
     <t>Domínio de informação</t>
   </si>
@@ -163,9 +186,6 @@
     <t>A entrada de dados online requer múltiplas telas ou operações ?</t>
   </si>
   <si>
-    <t>Os Arquivos Lógicos Internos são atualizados online</t>
-  </si>
-  <si>
     <t>As entradas, saídas e consultas são complexas ?</t>
   </si>
   <si>
@@ -220,12 +240,6 @@
     <t>Pontos de função totais por mês</t>
   </si>
   <si>
-    <t>Salário médio do desenvolvedor</t>
-  </si>
-  <si>
-    <t>Tempo para dedenvolvimento</t>
-  </si>
-  <si>
     <t>Custo do sistema</t>
   </si>
   <si>
@@ -251,6 +265,18 @@
   </si>
   <si>
     <t>Tempo decorrido de desenvolvimento</t>
+  </si>
+  <si>
+    <t>Salário médio do analista programador c#</t>
+  </si>
+  <si>
+    <t>Fonte: Catho</t>
+  </si>
+  <si>
+    <t>Tempo para desenvolvimento</t>
+  </si>
+  <si>
+    <t>Os Arquivos Lógicos Internos são atualizados online?</t>
   </si>
 </sst>
 </file>
@@ -261,7 +287,7 @@
     <numFmt numFmtId="164" formatCode="00\ \F\P"/>
     <numFmt numFmtId="165" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,6 +372,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1305,58 +1337,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1722,7 +1754,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1732,7 +1764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -1744,7 +1776,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="72" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
@@ -1755,7 +1787,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="75" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B2" s="76"/>
       <c r="C2" s="76"/>
@@ -1766,12 +1798,12 @@
         <v>16.900000000000002</v>
       </c>
       <c r="G2" s="60" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="78" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B3" s="79"/>
       <c r="C3" s="79"/>
@@ -1782,12 +1814,12 @@
         <v>10</v>
       </c>
       <c r="G3" s="58" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="78" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B4" s="79"/>
       <c r="C4" s="79"/>
@@ -1798,12 +1830,12 @@
         <v>1.6900000000000002</v>
       </c>
       <c r="G4" s="58" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="81" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B5" s="82"/>
       <c r="C5" s="82"/>
@@ -1811,14 +1843,14 @@
       <c r="E5" s="83"/>
       <c r="F5" s="70">
         <f>'Cálculo do Ponto de Função'!B19</f>
-        <v>0</v>
+        <v>28917.505500000003</v>
       </c>
       <c r="G5" s="71"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="72" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B7" s="73"/>
       <c r="C7" s="73"/>
@@ -1829,7 +1861,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="84" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="85"/>
       <c r="C8" s="85"/>
@@ -1837,7 +1869,7 @@
       <c r="E8" s="86"/>
       <c r="F8" s="59"/>
       <c r="G8" s="60" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1896,22 +1928,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.85546875" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="87" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="88"/>
       <c r="C1" s="88"/>
@@ -1946,7 +1979,7 @@
     <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="99"/>
       <c r="C6" s="34">
@@ -1956,7 +1989,7 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B7" s="97"/>
       <c r="C7" s="35">
@@ -1966,7 +1999,7 @@
     </row>
     <row r="8" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="101"/>
       <c r="C8" s="54">
@@ -1977,7 +2010,7 @@
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:6" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="47" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B11" s="48">
         <v>2</v>
@@ -1985,7 +2018,7 @@
     </row>
     <row r="12" spans="1:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="49" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="50">
         <v>5</v>
@@ -1993,7 +2026,7 @@
     </row>
     <row r="13" spans="1:6" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="51">
         <f>B11*B12</f>
@@ -2003,31 +2036,36 @@
     <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="15" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="53" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="56"/>
+        <v>47</v>
+      </c>
+      <c r="B15" s="56">
+        <v>3422.19</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:3" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="55" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B17" s="46">
         <f>C8/B13</f>
         <v>1.6900000000000002</v>
       </c>
       <c r="C17" s="57" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:3" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="46" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B19" s="56">
         <f>B12*B17*B15</f>
-        <v>0</v>
+        <v>28917.505500000003</v>
       </c>
     </row>
   </sheetData>
@@ -2039,6 +2077,7 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2218,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2229,26 +2268,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="112" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="33" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="33" t="s">
-        <v>28</v>
       </c>
       <c r="F1" s="30"/>
       <c r="G1" s="30"/>
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
       <c r="J1" s="33" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="E2" s="8">
         <v>0</v>
       </c>
@@ -2269,11 +2308,11 @@
       </c>
     </row>
     <row r="3" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
@@ -2282,11 +2321,11 @@
       <c r="J3" s="31"/>
     </row>
     <row r="4" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="112" t="s">
+      <c r="B4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
       <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
@@ -2295,11 +2334,11 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="112" t="s">
+      <c r="B5" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="113"/>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
@@ -2308,11 +2347,11 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="112" t="s">
+      <c r="B6" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="113"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
@@ -2321,11 +2360,11 @@
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="112" t="s">
+      <c r="B7" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
       <c r="G7" s="29"/>
@@ -2334,11 +2373,11 @@
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="112" t="s">
+      <c r="B8" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="113"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
       <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
@@ -2347,11 +2386,11 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="112" t="s">
+      <c r="B9" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
       <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
@@ -2360,11 +2399,11 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="112" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
+      <c r="B10" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
       <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
@@ -2373,11 +2412,11 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="112" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="113"/>
+      <c r="B11" s="124" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
       <c r="E11" s="29"/>
       <c r="F11" s="29"/>
       <c r="G11" s="29"/>
@@ -2386,11 +2425,11 @@
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="112" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="113"/>
+      <c r="B12" s="124" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
       <c r="E12" s="29"/>
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
@@ -2399,11 +2438,11 @@
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
+      <c r="B13" s="124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
@@ -2412,11 +2451,11 @@
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="112" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="113"/>
+      <c r="B14" s="124" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
@@ -2425,11 +2464,11 @@
       <c r="J14" s="29"/>
     </row>
     <row r="15" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="112" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="113"/>
+      <c r="B15" s="124" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
@@ -2438,11 +2477,11 @@
       <c r="J15" s="29"/>
     </row>
     <row r="16" spans="2:10" s="24" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="117" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
+      <c r="B16" s="128" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
@@ -2451,11 +2490,11 @@
       <c r="J16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="125" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="127"/>
+      <c r="B17" s="118" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="119"/>
+      <c r="D17" s="120"/>
       <c r="E17" s="28">
         <f>SUM(E3:E16)</f>
         <v>0</v>
@@ -2482,11 +2521,11 @@
       </c>
     </row>
     <row r="18" spans="2:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="120"/>
       <c r="E18" s="28">
         <f>E17*E2</f>
         <v>0</v>
@@ -2513,23 +2552,26 @@
       </c>
     </row>
     <row r="19" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="114" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="115"/>
-      <c r="D19" s="116"/>
-      <c r="E19" s="114">
+      <c r="B19" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="121">
         <f>SUM(E18:J18)</f>
         <v>0</v>
       </c>
-      <c r="F19" s="115"/>
-      <c r="G19" s="115"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E19:J19"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
     <mergeCell ref="B1:D2"/>
     <mergeCell ref="B17:D17"/>
     <mergeCell ref="B18:D18"/>
@@ -2546,9 +2588,6 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
     <mergeCell ref="B8:D8"/>
-    <mergeCell ref="E19:J19"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:J16">
     <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
@@ -2567,7 +2606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H9" sqref="G8:H9"/>
     </sheetView>
   </sheetViews>

--- a/Documentos de especificação complementar/Ponto de Função.xlsx
+++ b/Documentos de especificação complementar/Ponto de Função.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="12915" windowHeight="4905"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="12915" windowHeight="4905" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Questões" sheetId="4" r:id="rId4"/>
     <sheet name="Coeficientes" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -276,7 +276,7 @@
     <t>Tempo para desenvolvimento</t>
   </si>
   <si>
-    <t>Os Arquivos Lógicos Internos são atualizados online?</t>
+    <t>Os Arquivos Lógicos Internos são atualizados online</t>
   </si>
 </sst>
 </file>
@@ -1337,33 +1337,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1379,16 +1352,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1431,7 +1431,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1754,7 +1794,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1764,7 +1804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -1795,7 +1835,7 @@
       <c r="E2" s="77"/>
       <c r="F2" s="59">
         <f>'Cálculo do Ponto de Função'!C8</f>
-        <v>16.900000000000002</v>
+        <v>23.92</v>
       </c>
       <c r="G2" s="60" t="s">
         <v>34</v>
@@ -1827,7 +1867,7 @@
       <c r="E4" s="80"/>
       <c r="F4" s="61">
         <f>'Cálculo do Ponto de Função'!B17</f>
-        <v>1.6900000000000002</v>
+        <v>2.3920000000000003</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>39</v>
@@ -1843,7 +1883,7 @@
       <c r="E5" s="83"/>
       <c r="F5" s="70">
         <f>'Cálculo do Ponto de Função'!B19</f>
-        <v>28917.505500000003</v>
+        <v>40929.392400000004</v>
       </c>
       <c r="G5" s="71"/>
     </row>
@@ -1932,7 +1972,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1994,7 +2034,7 @@
       <c r="B7" s="97"/>
       <c r="C7" s="35">
         <f>Questões!E19</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -2004,7 +2044,7 @@
       <c r="B8" s="101"/>
       <c r="C8" s="54">
         <f>C6*(Coeficientes!A8 + (Coeficientes!A9 * C7))</f>
-        <v>16.900000000000002</v>
+        <v>23.92</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2052,7 +2092,7 @@
       </c>
       <c r="B17" s="46">
         <f>C8/B13</f>
-        <v>1.6900000000000002</v>
+        <v>2.3920000000000003</v>
       </c>
       <c r="C17" s="57" t="s">
         <v>39</v>
@@ -2065,7 +2105,7 @@
       </c>
       <c r="B19" s="56">
         <f>B12*B17*B15</f>
-        <v>28917.505500000003</v>
+        <v>40929.392400000004</v>
       </c>
     </row>
   </sheetData>
@@ -2257,8 +2297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2268,11 +2308,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="112" t="s">
+      <c r="B1" s="119" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="113"/>
-      <c r="D1" s="114"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="121"/>
       <c r="E1" s="33" t="s">
         <v>27</v>
       </c>
@@ -2284,10 +2324,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="115"/>
-      <c r="C2" s="116"/>
-      <c r="D2" s="117"/>
+    <row r="2" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="122"/>
+      <c r="C2" s="123"/>
+      <c r="D2" s="124"/>
       <c r="E2" s="8">
         <v>0</v>
       </c>
@@ -2308,25 +2348,29 @@
       </c>
     </row>
     <row r="3" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="126" t="s">
+      <c r="B3" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="129"/>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
+      <c r="J3" s="31">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="124" t="s">
+      <c r="B4" s="115" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="125"/>
-      <c r="D4" s="125"/>
-      <c r="E4" s="29"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="29">
+        <v>1</v>
+      </c>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -2334,12 +2378,14 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="124" t="s">
+      <c r="B5" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="29"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="29">
+        <v>1</v>
+      </c>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
@@ -2347,38 +2393,44 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="124" t="s">
+      <c r="B6" s="115" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="125"/>
-      <c r="D6" s="125"/>
+      <c r="C6" s="116"/>
+      <c r="D6" s="116"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
+      <c r="H6" s="29">
+        <v>1</v>
+      </c>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="124" t="s">
+      <c r="B7" s="115" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="125"/>
-      <c r="D7" s="125"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="116"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
+      <c r="G7" s="29">
+        <v>1</v>
+      </c>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="124" t="s">
+      <c r="B8" s="115" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="125"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="29"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="29">
+        <v>1</v>
+      </c>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -2386,12 +2438,14 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="124" t="s">
+      <c r="B9" s="115" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="125"/>
-      <c r="D9" s="125"/>
-      <c r="E9" s="29"/>
+      <c r="C9" s="116"/>
+      <c r="D9" s="116"/>
+      <c r="E9" s="29">
+        <v>1</v>
+      </c>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
@@ -2399,12 +2453,14 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="124" t="s">
+      <c r="B10" s="115" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="29"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="29">
+        <v>1</v>
+      </c>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -2412,104 +2468,116 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="124" t="s">
+      <c r="B11" s="115" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="125"/>
-      <c r="D11" s="125"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
+      <c r="F11" s="29">
+        <v>1</v>
+      </c>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="124" t="s">
+      <c r="B12" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
+      <c r="C12" s="116"/>
+      <c r="D12" s="116"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
+      <c r="F12" s="29">
+        <v>1</v>
+      </c>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="124" t="s">
+      <c r="B13" s="115" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
+      <c r="C13" s="116"/>
+      <c r="D13" s="116"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
+      <c r="G13" s="29">
+        <v>1</v>
+      </c>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="124" t="s">
+      <c r="B14" s="115" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="125"/>
-      <c r="D14" s="125"/>
+      <c r="C14" s="116"/>
+      <c r="D14" s="116"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
+      <c r="J14" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="124" t="s">
+      <c r="B15" s="115" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="116"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
+      <c r="J15" s="29">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="2:10" s="24" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="117" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
+      <c r="C16" s="118"/>
+      <c r="D16" s="118"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="32"/>
+      <c r="H16" s="32">
+        <v>1</v>
+      </c>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="118" t="s">
+      <c r="B17" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="119"/>
-      <c r="D17" s="120"/>
+      <c r="C17" s="126"/>
+      <c r="D17" s="127"/>
       <c r="E17" s="28">
         <f>SUM(E3:E16)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F17" s="26">
         <f t="shared" ref="F17:I17" si="0">SUM(F3:F16)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G17" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H17" s="26">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" s="26">
         <f t="shared" si="0"/>
@@ -2517,30 +2585,30 @@
       </c>
       <c r="J17" s="27">
         <f>SUM(J3:J16)</f>
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="118" t="s">
+      <c r="B18" s="125" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="119"/>
-      <c r="D18" s="120"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="127"/>
       <c r="E18" s="28">
         <f>E17*E2</f>
         <v>0</v>
       </c>
       <c r="F18" s="26">
         <f t="shared" ref="F18:J18" si="1">F17*F2</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G18" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H18" s="26">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I18" s="26">
         <f t="shared" si="1"/>
@@ -2548,27 +2616,30 @@
       </c>
       <c r="J18" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="112" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="122"/>
-      <c r="D19" s="123"/>
-      <c r="E19" s="121">
+      <c r="C19" s="113"/>
+      <c r="D19" s="114"/>
+      <c r="E19" s="112">
         <f>SUM(E18:J18)</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="123"/>
+        <v>27</v>
+      </c>
+      <c r="F19" s="113"/>
+      <c r="G19" s="113"/>
+      <c r="H19" s="113"/>
+      <c r="I19" s="113"/>
+      <c r="J19" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
@@ -2585,15 +2656,12 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:J16">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Documentos de especificação complementar/Ponto de Função.xlsx
+++ b/Documentos de especificação complementar/Ponto de Função.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="12915" windowHeight="4905" activeTab="3"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="12915" windowHeight="4905"/>
   </bookViews>
   <sheets>
     <sheet name="Resultados" sheetId="5" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Questões" sheetId="4" r:id="rId4"/>
     <sheet name="Coeficientes" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -276,7 +276,7 @@
     <t>Tempo para desenvolvimento</t>
   </si>
   <si>
-    <t>Os Arquivos Lógicos Internos são atualizados online</t>
+    <t>Os Arquivos Lógicos Internos são atualizados online?</t>
   </si>
 </sst>
 </file>
@@ -1337,6 +1337,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1352,43 +1379,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1431,47 +1431,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1794,7 +1754,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1804,7 +1764,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
@@ -1835,7 +1795,7 @@
       <c r="E2" s="77"/>
       <c r="F2" s="59">
         <f>'Cálculo do Ponto de Função'!C8</f>
-        <v>23.92</v>
+        <v>16.900000000000002</v>
       </c>
       <c r="G2" s="60" t="s">
         <v>34</v>
@@ -1867,7 +1827,7 @@
       <c r="E4" s="80"/>
       <c r="F4" s="61">
         <f>'Cálculo do Ponto de Função'!B17</f>
-        <v>2.3920000000000003</v>
+        <v>1.6900000000000002</v>
       </c>
       <c r="G4" s="58" t="s">
         <v>39</v>
@@ -1883,7 +1843,7 @@
       <c r="E5" s="83"/>
       <c r="F5" s="70">
         <f>'Cálculo do Ponto de Função'!B19</f>
-        <v>40929.392400000004</v>
+        <v>28917.505500000003</v>
       </c>
       <c r="G5" s="71"/>
     </row>
@@ -1972,7 +1932,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,7 +1994,7 @@
       <c r="B7" s="97"/>
       <c r="C7" s="35">
         <f>Questões!E19</f>
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="24" thickBot="1" x14ac:dyDescent="0.4">
@@ -2044,7 +2004,7 @@
       <c r="B8" s="101"/>
       <c r="C8" s="54">
         <f>C6*(Coeficientes!A8 + (Coeficientes!A9 * C7))</f>
-        <v>23.92</v>
+        <v>16.900000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2092,7 +2052,7 @@
       </c>
       <c r="B17" s="46">
         <f>C8/B13</f>
-        <v>2.3920000000000003</v>
+        <v>1.6900000000000002</v>
       </c>
       <c r="C17" s="57" t="s">
         <v>39</v>
@@ -2105,7 +2065,7 @@
       </c>
       <c r="B19" s="56">
         <f>B12*B17*B15</f>
-        <v>40929.392400000004</v>
+        <v>28917.505500000003</v>
       </c>
     </row>
   </sheetData>
@@ -2297,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11:D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,11 +2268,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="93.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="119" t="s">
+      <c r="B1" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="121"/>
+      <c r="C1" s="113"/>
+      <c r="D1" s="114"/>
       <c r="E1" s="33" t="s">
         <v>27</v>
       </c>
@@ -2324,10 +2284,10 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="122"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
+    <row r="2" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="115"/>
+      <c r="C2" s="116"/>
+      <c r="D2" s="117"/>
       <c r="E2" s="8">
         <v>0</v>
       </c>
@@ -2348,29 +2308,25 @@
       </c>
     </row>
     <row r="3" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="128" t="s">
+      <c r="B3" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="129"/>
-      <c r="D3" s="129"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
       <c r="E3" s="31"/>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
       <c r="H3" s="31"/>
       <c r="I3" s="31"/>
-      <c r="J3" s="31">
-        <v>1</v>
-      </c>
+      <c r="J3" s="31"/>
     </row>
     <row r="4" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="124" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="116"/>
-      <c r="D4" s="116"/>
-      <c r="E4" s="29">
-        <v>1</v>
-      </c>
+      <c r="C4" s="125"/>
+      <c r="D4" s="125"/>
+      <c r="E4" s="29"/>
       <c r="F4" s="29"/>
       <c r="G4" s="29"/>
       <c r="H4" s="29"/>
@@ -2378,14 +2334,12 @@
       <c r="J4" s="29"/>
     </row>
     <row r="5" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="115" t="s">
+      <c r="B5" s="124" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="116"/>
-      <c r="D5" s="116"/>
-      <c r="E5" s="29">
-        <v>1</v>
-      </c>
+      <c r="C5" s="125"/>
+      <c r="D5" s="125"/>
+      <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29"/>
       <c r="H5" s="29"/>
@@ -2393,44 +2347,38 @@
       <c r="J5" s="29"/>
     </row>
     <row r="6" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="115" t="s">
+      <c r="B6" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="116"/>
-      <c r="D6" s="116"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="125"/>
       <c r="E6" s="29"/>
       <c r="F6" s="29"/>
       <c r="G6" s="29"/>
-      <c r="H6" s="29">
-        <v>1</v>
-      </c>
+      <c r="H6" s="29"/>
       <c r="I6" s="29"/>
       <c r="J6" s="29"/>
     </row>
     <row r="7" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="115" t="s">
+      <c r="B7" s="124" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="116"/>
-      <c r="D7" s="116"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125"/>
       <c r="E7" s="29"/>
       <c r="F7" s="29"/>
-      <c r="G7" s="29">
-        <v>1</v>
-      </c>
+      <c r="G7" s="29"/>
       <c r="H7" s="29"/>
       <c r="I7" s="29"/>
       <c r="J7" s="29"/>
     </row>
     <row r="8" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="115" t="s">
+      <c r="B8" s="124" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="116"/>
-      <c r="D8" s="116"/>
-      <c r="E8" s="29">
-        <v>1</v>
-      </c>
+      <c r="C8" s="125"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="29"/>
       <c r="F8" s="29"/>
       <c r="G8" s="29"/>
       <c r="H8" s="29"/>
@@ -2438,14 +2386,12 @@
       <c r="J8" s="29"/>
     </row>
     <row r="9" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="115" t="s">
+      <c r="B9" s="124" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="116"/>
-      <c r="D9" s="116"/>
-      <c r="E9" s="29">
-        <v>1</v>
-      </c>
+      <c r="C9" s="125"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="29"/>
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29"/>
@@ -2453,14 +2399,12 @@
       <c r="J9" s="29"/>
     </row>
     <row r="10" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="115" t="s">
+      <c r="B10" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="29">
-        <v>1</v>
-      </c>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="29"/>
       <c r="F10" s="29"/>
       <c r="G10" s="29"/>
       <c r="H10" s="29"/>
@@ -2468,116 +2412,104 @@
       <c r="J10" s="29"/>
     </row>
     <row r="11" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="124" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
       <c r="E11" s="29"/>
-      <c r="F11" s="29">
-        <v>1</v>
-      </c>
+      <c r="F11" s="29"/>
       <c r="G11" s="29"/>
       <c r="H11" s="29"/>
       <c r="I11" s="29"/>
       <c r="J11" s="29"/>
     </row>
     <row r="12" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="115" t="s">
+      <c r="B12" s="124" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="116"/>
-      <c r="D12" s="116"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
       <c r="E12" s="29"/>
-      <c r="F12" s="29">
-        <v>1</v>
-      </c>
+      <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29"/>
       <c r="I12" s="29"/>
       <c r="J12" s="29"/>
     </row>
     <row r="13" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="115" t="s">
+      <c r="B13" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="116"/>
-      <c r="D13" s="116"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
-      <c r="G13" s="29">
-        <v>1</v>
-      </c>
+      <c r="G13" s="29"/>
       <c r="H13" s="29"/>
       <c r="I13" s="29"/>
       <c r="J13" s="29"/>
     </row>
     <row r="14" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="115" t="s">
+      <c r="B14" s="124" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="116"/>
-      <c r="D14" s="116"/>
+      <c r="C14" s="125"/>
+      <c r="D14" s="125"/>
       <c r="E14" s="29"/>
       <c r="F14" s="29"/>
       <c r="G14" s="29"/>
       <c r="H14" s="29"/>
       <c r="I14" s="29"/>
-      <c r="J14" s="29">
-        <v>1</v>
-      </c>
+      <c r="J14" s="29"/>
     </row>
     <row r="15" spans="2:10" s="24" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="115" t="s">
+      <c r="B15" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="116"/>
-      <c r="D15" s="116"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
       <c r="E15" s="29"/>
       <c r="F15" s="29"/>
       <c r="G15" s="29"/>
       <c r="H15" s="29"/>
       <c r="I15" s="29"/>
-      <c r="J15" s="29">
-        <v>1</v>
-      </c>
+      <c r="J15" s="29"/>
     </row>
     <row r="16" spans="2:10" s="24" customFormat="1" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="117" t="s">
+      <c r="B16" s="128" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="118"/>
-      <c r="D16" s="118"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
       <c r="E16" s="32"/>
       <c r="F16" s="32"/>
       <c r="G16" s="32"/>
-      <c r="H16" s="32">
-        <v>1</v>
-      </c>
+      <c r="H16" s="32"/>
       <c r="I16" s="32"/>
       <c r="J16" s="32"/>
     </row>
     <row r="17" spans="2:10" ht="13.5" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="125" t="s">
+      <c r="B17" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="C17" s="126"/>
-      <c r="D17" s="127"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="120"/>
       <c r="E17" s="28">
         <f>SUM(E3:E16)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F17" s="26">
         <f t="shared" ref="F17:I17" si="0">SUM(F3:F16)</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G17" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" s="26">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" s="26">
         <f t="shared" si="0"/>
@@ -2585,30 +2517,30 @@
       </c>
       <c r="J17" s="27">
         <f>SUM(J3:J16)</f>
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="125" t="s">
+      <c r="B18" s="118" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="126"/>
-      <c r="D18" s="127"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="120"/>
       <c r="E18" s="28">
         <f>E17*E2</f>
         <v>0</v>
       </c>
       <c r="F18" s="26">
         <f t="shared" ref="F18:J18" si="1">F17*F2</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G18" s="26">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H18" s="26">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I18" s="26">
         <f t="shared" si="1"/>
@@ -2616,30 +2548,27 @@
       </c>
       <c r="J18" s="27">
         <f t="shared" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="112" t="s">
+      <c r="B19" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="114"/>
-      <c r="E19" s="112">
+      <c r="C19" s="122"/>
+      <c r="D19" s="123"/>
+      <c r="E19" s="121">
         <f>SUM(E18:J18)</f>
-        <v>27</v>
-      </c>
-      <c r="F19" s="113"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="113"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="114"/>
+        <v>0</v>
+      </c>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
     <mergeCell ref="E19:J19"/>
     <mergeCell ref="B15:D15"/>
     <mergeCell ref="B16:D16"/>
@@ -2656,12 +2585,15 @@
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B4:D4"/>
     <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:J16">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
